--- a/data/app_data/agent_followup_data/real_conversation_data/智能体追问/special_case_哄女朋友.xlsx
+++ b/data/app_data/agent_followup_data/real_conversation_data/智能体追问/special_case_哄女朋友.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyi/Documents/Research/tongyiApp/数据/智能体追问/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyi/Documents/Research/LLM-related/Meta-ICL/data/app_data/agent_followup_data/real_conversation_data/智能体追问/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B4A329C-C9F0-5149-85FF-1D3D13B39758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDDDFAF-B1E4-0749-A1E8-5B00B7A76FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52540" yWindow="860" windowWidth="28040" windowHeight="17360" xr2:uid="{E4A7C7CA-3008-7B43-8350-8F1DF2F10390}"/>
+    <workbookView xWindow="56240" yWindow="3000" windowWidth="28040" windowHeight="17360" xr2:uid="{E4A7C7CA-3008-7B43-8350-8F1DF2F10390}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3349,7 +3349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F888A3A7-1F46-D84D-9F25-5A05593B2CBD}">
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
       <selection activeCell="G207" sqref="G207"/>
     </sheetView>
   </sheetViews>
